--- a/python/results/Rahil_p_loadings_and_variance.xlsx
+++ b/python/results/Rahil_p_loadings_and_variance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,21 +484,6 @@
           <t>PC10</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PC11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>PC12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>PC13</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -507,43 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2892296586682744</v>
+        <v>0.318921419728793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2121663681718325</v>
+        <v>0.2562653618595358</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1712969492441912</v>
+        <v>0.1902455497096337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08806342339394534</v>
+        <v>0.09035089050138323</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07513567632639109</v>
+        <v>0.05708725614825665</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06712180742739791</v>
+        <v>0.03778435329963951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04408786391111939</v>
+        <v>0.02587058125802659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02301947144921034</v>
+        <v>0.01163675862169664</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01133781450001329</v>
+        <v>0.008356410065847197</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007836744811953322</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.006652190294470492</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.002489728525235159</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.001562303275965535</v>
+        <v>0.003481418807187616</v>
       </c>
     </row>
     <row r="3">
@@ -553,595 +529,367 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.336263600552282</v>
+        <v>-0.2533953372950192</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07521641067353046</v>
+        <v>-0.4581193081288932</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3670118171906322</v>
+        <v>0.4935231321171035</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3953285746599473</v>
+        <v>-0.2086315208313161</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09696948344599643</v>
+        <v>0.3889449379339887</v>
       </c>
       <c r="G3" t="n">
-        <v>0.396469222445708</v>
+        <v>-0.2120986519207131</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.326516806451743</v>
+        <v>0.1425154626903798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1657058199803421</v>
+        <v>0.1737109230324923</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1477265624011606</v>
+        <v>-0.2075162785523593</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.08907516368270493</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.2690867526556764</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.3582924294684698</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.2430754828820085</v>
+        <v>-0.3860209301263992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>M0</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3181215942253831</v>
+        <v>0.4590477113837707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1604706147927933</v>
+        <v>-0.2453696524786836</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3035498757278167</v>
+        <v>0.1391532203090419</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.276331676956452</v>
+        <v>-0.488235764114836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.428870221098604</v>
+        <v>-0.3285217519200139</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1129813705479268</v>
+        <v>0.4953190732824215</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4242645346844203</v>
+        <v>-0.2152632064784879</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1890481562559134</v>
+        <v>0.2342315254918475</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.15153532814916</v>
+        <v>-0.04270556642463164</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2828035847532605</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3346781418263403</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2756064636577513</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.0346821029920867</v>
+        <v>-0.1226262834362899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1403432354234656</v>
+        <v>-0.1268089589451504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3642486158005326</v>
+        <v>-0.1953182869002864</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2460587181016834</v>
+        <v>0.009830421347246134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0394556758786288</v>
+        <v>-0.1427346806075869</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3424083623332655</v>
+        <v>-0.1128889226786445</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2600736584588405</v>
+        <v>-0.1760937823302354</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02772908730586601</v>
+        <v>0.278276059208236</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1092465981235775</v>
+        <v>0.5348608763677883</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4400527117621774</v>
+        <v>0.5879838314624787</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5018342020007572</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2762913845297783</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.2551144945732662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.03217566172347924</v>
+        <v>0.4151009409817996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>c</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2357631417644706</v>
+        <v>0.2476503582614286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6875942921515565</v>
+        <v>0.04871158319110108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02522974237177995</v>
+        <v>-0.1808296411344348</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03413608946912951</v>
+        <v>-0.2127202727223984</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1688518276565306</v>
+        <v>0.1056085933086447</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01775298128024599</v>
+        <v>0.1120161587677885</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05268562412592331</v>
+        <v>0.8211547463200772</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06846147464911996</v>
+        <v>-0.08266280140816441</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5055530492289732</v>
+        <v>-0.3552755757286031</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1815923066784172</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-0.2626573374925646</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2670330779032081</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.06843952272593376</v>
+        <v>0.1652193164265458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1517575536278347</v>
+        <v>0.4133161972807677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04744554580582674</v>
+        <v>0.2520836881218589</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04161003009708111</v>
+        <v>-0.1740100373112645</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005918566017448426</v>
+        <v>-0.43954812821679</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1210770747068662</v>
+        <v>0.5290195552184812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.146544767667298</v>
+        <v>-0.4105554222212411</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01301471480784257</v>
+        <v>-0.2804947939860777</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8013097988659035</v>
+        <v>0.04961520498377157</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02227150812233031</v>
+        <v>0.07928157340027428</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2966210379101044</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1394383895371852</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.1309800474033388</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.4116690904865281</v>
+        <v>0.07936923034638656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>xi</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07340740902954422</v>
+        <v>-0.2290198684587677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04951745342852351</v>
+        <v>0.3194719583699886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05935425774268017</v>
+        <v>-0.2964639332857201</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.324732218261685</v>
+        <v>0.113407435958616</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1436063606875995</v>
+        <v>0.1716719861539548</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01581434302337202</v>
+        <v>0.237783067938541</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1508991056191364</v>
+        <v>-0.07488891250977998</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3398636647105477</v>
+        <v>0.7251720185941076</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02913979338619217</v>
+        <v>-0.3210034951223295</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.07619474561726644</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.09597984358627418</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-0.1947280230613242</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.8186872427950503</v>
+        <v>-0.1555549726579544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>xi</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4235952006054912</v>
+        <v>0.2409266115280212</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1650777384759201</v>
+        <v>0.04629911647210114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3123679086810593</v>
+        <v>0.5463049561492489</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2196234811728988</v>
+        <v>0.3379046873659095</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3962667752320856</v>
+        <v>0.2146722779985321</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5416637878453093</v>
+        <v>0.1269717008615432</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.298440485492093</v>
+        <v>-0.1334295642435769</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2189681862000618</v>
+        <v>0.1327438885732729</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1857219732190315</v>
+        <v>-0.2621869366595771</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0268942551400157</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1438012461150343</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.06304085245171273</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.01409100795331106</v>
+        <v>0.6006743699634396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d_E</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2691675611112789</v>
+        <v>0.5388815351635428</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2843112264976603</v>
+        <v>0.1988641813691751</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2356876065455562</v>
+        <v>0.2117747290560893</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3630512262592783</v>
+        <v>0.4189327041137891</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01833975369179003</v>
+        <v>-0.150973203335092</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01676628999060792</v>
+        <v>-0.2545072621297259</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0002331619888566727</v>
+        <v>0.2334696537890677</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01696564793893159</v>
+        <v>0.2292501529855089</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.5305984618863425</v>
+        <v>0.1873169828594761</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07977477265771585</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5678284462492754</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1074498493585284</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.1912652883809826</v>
+        <v>-0.4690291711945089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>d_E</t>
+          <t>delta_E</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0611319817529559</v>
+        <v>-0.09172520613887264</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3650471054233028</v>
+        <v>0.3163705065444262</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1776095458117207</v>
+        <v>0.2260578534316212</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3649939120102696</v>
+        <v>-0.04475205907490426</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3584460703674952</v>
+        <v>0.4385254303481489</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1717669308045976</v>
+        <v>0.5664676363797407</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2148890920660249</v>
+        <v>0.1480951118532416</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1515926957900397</v>
+        <v>-0.1533925503052825</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.3793582075519639</v>
+        <v>0.5049821591295217</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4153847210622803</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-0.3746850387593368</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-0.0293217783883192</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.115701740644939</v>
+        <v>-0.1572664473028896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>delta_E</t>
+          <t>K_delta_E</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3876060131842676</v>
+        <v>-0.259849872209673</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230944838364356</v>
+        <v>0.6180687626765866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1175075275550363</v>
+        <v>0.4378414691915811</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2128002929882102</v>
+        <v>-0.3933508421480671</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2501690446409503</v>
+        <v>-0.3826010992728378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4673799959553624</v>
+        <v>-0.198087488297423</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3062177134268105</v>
+        <v>0.05557916532891988</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06177540155071421</v>
+        <v>-0.002973159156842903</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.201852526959922</v>
+        <v>-0.122482951215038</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3766453954565672</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.08396746747093647</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.3986006699030978</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-0.1008997050539578</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>K_delta_E</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.4668699453225175</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.05794930271779825</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2726558037295643</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.2964742820733025</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.3574357431181655</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1287187118170341</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.124858818714208</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2754634425922114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.03708432328184569</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.4498082922276168</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.3884960618419088</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.01467728641711591</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.1605930745449646</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>zeta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.2257177115557991</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.1452880206184422</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6587001369371802</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.3701800991677112</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.3864903510763813</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.3656975121718524</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.01429675122715242</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.1040715606388848</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.02739834827945931</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.0973963683035711</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-0.01096342669987217</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.2283283827274365</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.01970308832453954</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>tau_memory</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.0851487813660104</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.1981930352253831</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.004632284558793942</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.2750864660095731</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.007964902792037695</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.220083036959281</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6649016996564954</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.02886928141183991</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-0.04275624920275889</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.01332846931696296</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.002261982296603068</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6136706065317995</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-0.08800579926281435</v>
+        <v>0.01779889143940759</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/Rahil_p_loadings_and_variance.xlsx
+++ b/python/results/Rahil_p_loadings_and_variance.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.318921419728793</v>
+        <v>0.2840820393096488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2562653618595358</v>
+        <v>0.2639873112078904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1902455497096337</v>
+        <v>0.1588660312434461</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09035089050138323</v>
+        <v>0.1127827207991852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05708725614825665</v>
+        <v>0.06965471045053562</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03778435329963951</v>
+        <v>0.05498035813457221</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02587058125802659</v>
+        <v>0.03086035923190412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01163675862169664</v>
+        <v>0.0129189010943246</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008356410065847197</v>
+        <v>0.007878672486767147</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003481418807187616</v>
+        <v>0.003988896041725828</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2533953372950192</v>
+        <v>-0.1917155864692458</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4581193081288932</v>
+        <v>-0.4880671410434576</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4935231321171035</v>
+        <v>0.5517347838593502</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2086315208313161</v>
+        <v>-0.2397722164768425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3889449379339887</v>
+        <v>0.3484444388399826</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2120986519207131</v>
+        <v>-0.1311646364246148</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1425154626903798</v>
+        <v>-0.04067366517206245</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1737109230324923</v>
+        <v>0.2611076523340474</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2075162785523593</v>
+        <v>-0.231309110195296</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3860209301263992</v>
+        <v>-0.3180887703325886</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4590477113837707</v>
+        <v>0.5005943238343356</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2453696524786836</v>
+        <v>-0.08243242192737033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1391532203090419</v>
+        <v>0.03227595126051325</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.488235764114836</v>
+        <v>-0.3724643271910969</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3285217519200139</v>
+        <v>-0.3499925513886961</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4953190732824215</v>
+        <v>0.5487431634635519</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2152632064784879</v>
+        <v>-0.2807649963777393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2342315254918475</v>
+        <v>0.04749650324186844</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04270556642463164</v>
+        <v>-0.245234162028266</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1226262834362899</v>
+        <v>-0.1949365691395164</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1268089589451504</v>
+        <v>0.1150808228302227</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1953182869002864</v>
+        <v>-0.3170273896294997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009830421347246134</v>
+        <v>0.001609881086548616</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1427346806075869</v>
+        <v>-0.4505933363074832</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1128889226786445</v>
+        <v>-0.1760617439533064</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1760937823302354</v>
+        <v>-0.07051016168027631</v>
       </c>
       <c r="H5" t="n">
-        <v>0.278276059208236</v>
+        <v>0.2939985628261528</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5348608763677883</v>
+        <v>0.3287716897549313</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5879838314624787</v>
+        <v>0.446584671771053</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4151009409817996</v>
+        <v>0.503269136175196</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2476503582614286</v>
+        <v>0.118566499191282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04871158319110108</v>
+        <v>-0.1484860693426271</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1808296411344348</v>
+        <v>0.1712802123229097</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2127202727223984</v>
+        <v>-0.0501817210662663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1056085933086447</v>
+        <v>-0.09736045838150159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1120161587677885</v>
+        <v>0.01068814148070751</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8211547463200772</v>
+        <v>0.65126460882422</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08266280140816441</v>
+        <v>-0.5489261846634902</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3552755757286031</v>
+        <v>-0.4176764731780813</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1652193164265458</v>
+        <v>0.1500875672096699</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4133161972807677</v>
+        <v>0.1558799473146911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2520836881218589</v>
+        <v>0.3335923823270237</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1740100373112645</v>
+        <v>-0.2406985589588373</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.43954812821679</v>
+        <v>-0.03211386581400698</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5290195552184812</v>
+        <v>0.414333886779171</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4105554222212411</v>
+        <v>0.1544430072430629</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2804947939860777</v>
+        <v>0.3591411231662432</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04961520498377157</v>
+        <v>0.5578584429881586</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07928157340027428</v>
+        <v>-0.4009666606764232</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07936923034638656</v>
+        <v>0.0946710296768129</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2290198684587677</v>
+        <v>0.4847656223235755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3194719583699886</v>
+        <v>0.2093006018071916</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2964639332857201</v>
+        <v>-0.06683680650212571</v>
       </c>
       <c r="E8" t="n">
-        <v>0.113407435958616</v>
+        <v>-0.4229663384839121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1716719861539548</v>
+        <v>0.4640132895290569</v>
       </c>
       <c r="G8" t="n">
-        <v>0.237783067938541</v>
+        <v>-0.3963915936587467</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.07488891250977998</v>
+        <v>-0.1201750050989508</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7251720185941076</v>
+        <v>-0.3286904269091807</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3210034951223295</v>
+        <v>0.1707552772463338</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1555549726579544</v>
+        <v>-0.1172878749907778</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2409266115280212</v>
+        <v>0.1035868861547814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04629911647210114</v>
+        <v>-0.02012984968036192</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5463049561492489</v>
+        <v>0.2538951862764938</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3379046873659095</v>
+        <v>0.1370220778653638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2146722779985321</v>
+        <v>0.1752901140317158</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1269717008615432</v>
+        <v>-0.02171867185800905</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1334295642435769</v>
+        <v>-0.4768227952046462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1327438885732729</v>
+        <v>-0.06482068978063375</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2621869366595771</v>
+        <v>-0.3097530083926103</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6006743699634396</v>
+        <v>0.7395402489983055</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5388815351635428</v>
+        <v>0.5849083464054535</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1988641813691751</v>
+        <v>0.0242388363442374</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2117747290560893</v>
+        <v>0.351958938478956</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4189327041137891</v>
+        <v>0.4958881455835036</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.150973203335092</v>
+        <v>-0.245186947304936</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2545072621297259</v>
+        <v>-0.3459937817367809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2334696537890677</v>
+        <v>0.1164394073037562</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2292501529855089</v>
+        <v>0.2747148909862195</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1873169828594761</v>
+        <v>0.0685295843394441</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.4690291711945089</v>
+        <v>-0.1181673002596085</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09172520613887264</v>
+        <v>0.1238157647474006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3163705065444262</v>
+        <v>0.0178724761302527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2260578534316212</v>
+        <v>0.3262663357186191</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04475205907490426</v>
+        <v>0.2426052550337281</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4385254303481489</v>
+        <v>0.42694501557404</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5664676363797407</v>
+        <v>0.6125108523325411</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1480951118532416</v>
+        <v>0.1472594226790054</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1533925503052825</v>
+        <v>-0.1385158733512598</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5049821591295217</v>
+        <v>0.4692769692981282</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1572664473028896</v>
+        <v>0.0223327159890918</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.259849872209673</v>
+        <v>-0.2405706122872368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6180687626765866</v>
+        <v>0.6899551479500383</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4378414691915811</v>
+        <v>0.5549927491402781</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3933508421480671</v>
+        <v>-0.3078275701284858</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3826010992728378</v>
+        <v>-0.2356027978424497</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.198087488297423</v>
+        <v>-0.01609283979255649</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05557916532891988</v>
+        <v>0.05392675358531321</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.002973159156842903</v>
+        <v>0.04534331704327077</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.122482951215038</v>
+        <v>0.04085418307217499</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01779889143940759</v>
+        <v>0.03020060463766763</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/Rahil_p_loadings_and_variance.xlsx
+++ b/python/results/Rahil_p_loadings_and_variance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2840820393096488</v>
+        <v>0.2831393820041949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2639873112078904</v>
+        <v>0.2640169231101865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1588660312434461</v>
+        <v>0.1583582215945062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1127827207991852</v>
+        <v>0.1125640122881693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06965471045053562</v>
+        <v>0.06991951883505064</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05498035813457221</v>
+        <v>0.05511299647157404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03086035923190412</v>
+        <v>0.03200649217690454</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0129189010943246</v>
+        <v>0.01293328388730723</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007878672486767147</v>
+        <v>0.007963843487465011</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003988896041725828</v>
+        <v>0.003985326144641764</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1917155864692458</v>
+        <v>-0.1958854258684121</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4880671410434576</v>
+        <v>-0.4896658045127715</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5517347838593502</v>
+        <v>0.5523077187471278</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2397722164768425</v>
+        <v>-0.238377262901181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3484444388399826</v>
+        <v>0.3503155171407556</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1311646364246148</v>
+        <v>-0.1344351943426687</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.04067366517206245</v>
+        <v>-0.03722561053173648</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2611076523340474</v>
+        <v>0.2585169259942093</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.231309110195296</v>
+        <v>-0.2288806438553147</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3180887703325886</v>
+        <v>-0.31399344722967</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5005943238343356</v>
+        <v>0.4984519008861835</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08243242192737033</v>
+        <v>-0.08479859001686707</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03227595126051325</v>
+        <v>0.03491042836446823</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3724643271910969</v>
+        <v>-0.3731143280688165</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3499925513886961</v>
+        <v>-0.3478435132108483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5487431634635519</v>
+        <v>0.5479730089697371</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2807649963777393</v>
+        <v>-0.2816531024130611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04749650324186844</v>
+        <v>0.05363528291378925</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.245234162028266</v>
+        <v>-0.2459016449038875</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1949365691395164</v>
+        <v>-0.1999487457686905</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1150808228302227</v>
+        <v>0.1170270969684024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3170273896294997</v>
+        <v>-0.3153916852911824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001609881086548616</v>
+        <v>-0.000208683455101992</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4505933363074832</v>
+        <v>-0.4520791981947372</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1760617439533064</v>
+        <v>-0.1780836193890594</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07051016168027631</v>
+        <v>-0.07165280849450302</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2939985628261528</v>
+        <v>0.2979224146372562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3287716897549313</v>
+        <v>0.3259715041955509</v>
       </c>
       <c r="J5" t="n">
-        <v>0.446584671771053</v>
+        <v>0.4462918451647641</v>
       </c>
       <c r="K5" t="n">
-        <v>0.503269136175196</v>
+        <v>0.50141559631101</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.118566499191282</v>
+        <v>0.1247129359811141</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1484860693426271</v>
+        <v>-0.144255294002681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1712802123229097</v>
+        <v>0.1718783476029781</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0501817210662663</v>
+        <v>-0.05032199962777285</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09736045838150159</v>
+        <v>-0.09424384554923484</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01068814148070751</v>
+        <v>0.01130431368313128</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65126460882422</v>
+        <v>0.6443708799921701</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5489261846634902</v>
+        <v>-0.5518108825293992</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4176764731780813</v>
+        <v>-0.4227995567373519</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1500875672096699</v>
+        <v>0.1551914545362885</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1558799473146911</v>
+        <v>0.1411931185225879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3335923823270237</v>
+        <v>0.3287314302928945</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2406985589588373</v>
+        <v>-0.2392676631935203</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03211386581400698</v>
+        <v>-0.02198135499474733</v>
       </c>
       <c r="F7" t="n">
-        <v>0.414333886779171</v>
+        <v>0.4016551830551429</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1544430072430629</v>
+        <v>0.1623964502708125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3591411231662432</v>
+        <v>0.3647692648341798</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5578584429881586</v>
+        <v>0.5683754956586218</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4009666606764232</v>
+        <v>-0.4025330043203144</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0946710296768129</v>
+        <v>0.09180589341839901</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4847656223235755</v>
+        <v>0.4887794603794968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2093006018071916</v>
+        <v>0.2190095319548956</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06683680650212571</v>
+        <v>-0.06705771931984741</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4229663384839121</v>
+        <v>-0.4211679520014763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4640132895290569</v>
+        <v>0.4805813433122298</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3963915936587467</v>
+        <v>-0.3903869724751668</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1201750050989508</v>
+        <v>-0.1292852718900913</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3286904269091807</v>
+        <v>-0.3141731372431977</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1707552772463338</v>
+        <v>0.1525559088030591</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1172878749907778</v>
+        <v>-0.09590161463061939</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1035868861547814</v>
+        <v>0.08692135845928815</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02012984968036192</v>
+        <v>-0.02122032842862374</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2538951862764938</v>
+        <v>0.251766301758333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1370220778653638</v>
+        <v>0.1426426126890004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1752901140317158</v>
+        <v>0.1651783300851661</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02171867185800905</v>
+        <v>-0.005147928443240427</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4768227952046462</v>
+        <v>-0.4773204971841908</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06482068978063375</v>
+        <v>-0.04734205563611598</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3097530083926103</v>
+        <v>-0.3111643208580094</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7395402489983055</v>
+        <v>0.7443463210852449</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5849083464054535</v>
+        <v>0.5886877312621923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0242388363442374</v>
+        <v>0.02214292847716626</v>
       </c>
       <c r="D10" t="n">
-        <v>0.351958938478956</v>
+        <v>0.357315742744842</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4958881455835036</v>
+        <v>0.5001999999930171</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.245186947304936</v>
+        <v>-0.2346569539656153</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3459937817367809</v>
+        <v>-0.3394267243776623</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1164394073037562</v>
+        <v>0.1141941715746599</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2747148909862195</v>
+        <v>0.2708737312151434</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0685295843394441</v>
+        <v>0.07378446552475819</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1181673002596085</v>
+        <v>-0.1138000178845959</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1238157647474006</v>
+        <v>0.1149296867024846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0178724761302527</v>
+        <v>0.02011850362323829</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3262663357186191</v>
+        <v>0.3220862998075914</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2426052550337281</v>
+        <v>0.2335682078672634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.42694501557404</v>
+        <v>0.4287554168305443</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6125108523325411</v>
+        <v>0.6180698289643889</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1472594226790054</v>
+        <v>0.147295017981118</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1385158733512598</v>
+        <v>-0.1414077847921796</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4692769692981282</v>
+        <v>0.4690181513132963</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0223327159890918</v>
+        <v>0.0241078733098924</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2405706122872368</v>
+        <v>-0.2403490932411613</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6899551479500383</v>
+        <v>0.6894782084052276</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5549927491402781</v>
+        <v>0.5546612373978006</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3078275701284858</v>
+        <v>-0.3067366740381027</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2356027978424497</v>
+        <v>-0.2392153067811459</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01609283979255649</v>
+        <v>-0.0192077142248378</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05392675358531321</v>
+        <v>0.05451514858508483</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04534331704327077</v>
+        <v>0.0466273466043554</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04085418307217499</v>
+        <v>0.04072619055424079</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03020060463766763</v>
+        <v>0.02679748650588879</v>
       </c>
     </row>
   </sheetData>
